--- a/resultados_ollama_smollm2_135m_zeroshot.xlsx
+++ b/resultados_ollama_smollm2_135m_zeroshot.xlsx
@@ -463,16 +463,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Based on the provided classification, we can classify this incident as follows:
-- **CAT1: Account Compromise**: unauthorized access to user or administrator accounts.
-- **CAT2: Malware**: infected user account (e.g., ransomware)
-- **CAT3: Denial of Service Attack**: making systems unavailable due to malicious code
-- **CAT4: Data Leak**: unauthorized disclosure of sensitive data
-- **CAT5: Vulnerability Exploitation**: using technical flaws for attacks
-- **CAT6: Insider Abuse**: malicious or negligent actions by internal users
-- **CAT7: Social Engineering**: deceptive use of technical flaws to gain access or data
-- **CAT8: Physical Incident**: unauthorized physical access or impact
-- **CAT9: Unauthorized Modification**: improper changes to systems or data.</t>
+          <t>The categorization of the incident described in the input text as "unknown" indicates that it does not meet the specified criteria for a classification. The categories are:
+1. **CAT5**: A category with no specific information provided about the incident, such as its date or location.
+2. **CAT6**: A category with no specific information provided about the incident, such as its type (e.g., unauthorized access, malware), duration, and any other relevant details.
+3. ****: A category that does not provide a clear explanation for why the classification is "unknown".
+4. **CAT7**: A category that provides some additional information on the incident, but it is not enough to classify it as "unknown" or provide further context about its nature.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -499,328 +494,440 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CERT.br works as a coordinating team for incidents and abuses related to Brazilian networks. We are listed in the "remarks" notes of the Brazilian Whois Server output to receive copies of complaints, but we are not the technical or abuse contact of any network.
-We are forwarding your email to the proper contacts for this network so they can handle this incident.
-Original message was attached to this email.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>RNP2022-026802</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>The classification of this incident is:
-- **CAT1: Account Compromise** – unauthorized access to user or administrator accounts.
-- **CAT2: Malware** – infection by malicious code.
-- **CAT3: Denial of Service Attack** – making systems unavailable.
-- **CAT4: Data Leak** – unauthorized disclosure of sensitive data.
-- **CAT5: Vulnerability Exploitation** – using technical flaws for attacks.
-- **CAT6: Insider Abuse** – malicious or negligent actions by internal users.
-- **CAT7: Social Engineering** – deception to gain access or data.
-- **CAT8: Physical Incident** – unauthorized physical access or impact.
-- **CAT9: Unauthorized Modification** – improper changes to systems or data.
-- **CAT10: Misuse of Resources** – using systems for non-authorized purposes.
-- **CAT11: Third-Party Issues** – security incidents from suppliers or service providers.
-- **CAT12: Intrusion Attempt** – unconfirmed or prevented attacks.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>RNP2022-042745</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Based on the input logline, we can classify the incident as follows:
-- Category: Account Compromise
-- Description: An attacker gained access to a compromised user account.
-- Explanation: The attacker exploited an exploit to gain unauthorized access and then used it to steal sensitive data from the system.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>{'Category': 'Account Compromise- Description: An attacker gained access to a compromised user account.-', 'Explanation': 'The attacker exploited an exploit to gain unauthorized access and then used it to steal sensitive data from the system.'}</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Account Compromise- Description: An attacker gained access to a compromised user account.-</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>The attacker exploited an exploit to gain unauthorized access and then used it to steal sensitive data from the system.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>RNP2022-026209</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>[URL_ef2283438e]
-* Por que estou recebendo essa mensagem?
-Você está recebendo esse email por estar listado em
-  [URL_ce6cd54a0d] como contato do domínio extraído da URL ou como contato do endereço IP indicado no campo 'IP'.
-* O que é o malware SystemBC?
-SystemBC é um backdoor que pode ser utilizado como um proxy ou como
-  uma ferramenta de administração remota, além disso, o SystemBC tem a capacidade de
-  usar o Tor para cifrar e esconder o tráfego com o[ORGANIZATION_143e52685e] e Controle.
-* O que é o malware SystemBC?
-SystemBC é um backdoor que pode ser utilizado como um proxy ou como
-  uma ferramenta de administração remota, além disso, o SystemBC tem a capacidade de usar
-  o Tor para cifrar e esconder o tráfego com o[ORGANIZATION_9634d99a56] do [ORGANIZATION_a2bd6c582d] no Brasil.
-* O que é o malware SystemBC?
-SystemBC é um backdoor que pode ser utilizado como um proxy ou como
-  uma ferramenta de administração remota, além disso, o SystemBC tem a capacidade de usar
-  o Tor para cifrar e esconder o tráfego com o[ORGANIZATION_4b1d4a2870] básico do [ORGANIZATION_54947c67d4].
-* O que é o malware SystemBC?
-SystemBC é um backdoor que pode ser utilizado como um proxy ou como
-  uma ferramenta de administração remota, além disso, o SystemBC tem a capacidade de
-  usar o Tor para cifrar e esconder o tráfego com o[ORGANIZATION_1c830a68e6] e Controle.
-* O que é o malware SystemBC?
-SystemBC é um backdoor que pode ser utilizado como um proxy ou como
-  uma ferramenta de administração remota, além disso, o SystemBC tem a capacidade de
-  usar o Tor para cifrar e esconder o tráfego com o[ORGANIZATION_143e52685e] e Controle.
-* O que é o malware SystemBC?
-SystemBC é um backdoor que pode ser utilizado como um proxy ou como
-  uma ferramenta de administração remota, além disso, o SystemBC tem a capacidade de
-  usar o Tor para cifrar e esconder o tráfego com o[ORGANIZATION_9634d99a56] do [ORGANIZATION_a2bd6c582d].
-* O que é o malware SystemBC?
-SystemBC é um backdoor que pode ser utilizado como um proxy ou como
-  uma ferramenta de administração remota, além disso, o SystemBC tem a capacidade de
-  usar o Tor para cifrar e esconder o tráfego com o[ORGANIZATION_4b1d4a2870] básico do [ORGANIZATION_54947c67d4].
-* O que é o malware SystemBC?
-SystemBC é um backdoor que pode ser utilizado como um proxy ou como
-  uma ferramenta de administração remota, além disso, o SystemBC tem a capacidade de
-  usar o Tor para cifrar e esconder o tráfego com o[ORGANIZATION_1c830a68e6] e Controle.
-* O que é o malware SystemBC?
-SystemBC é um backdoor que pode ser utilizado como um proxy ou como
-  uma ferramenta de administração remota, além disso, o SystemBC tem a capacidade de
-  usar o Tor para cifrar e esconder o tráfego com o[ORGANIZATION_143e52685e] e Controle.
-* O que é o malware SystemBC?
-SystemBC é um backdoor que pode ser utilizado como um proxy ou como
-  uma ferramenta de administração remota, além disso, o SystemBC tem a capacidade de
-  usar o Tor para cifrar e esconder o tráfego com o[ORGANIZATION_9634d99a56] do [ORGANIZATION_a2bd6c582d].
-* O que é o malware SystemBC?
-SystemBC é um backdoor que pode ser utilizado como um proxy ou como
-  uma ferramenta de administração remota, além disso, o SystemBC tem a capacidade de
-  usar o Tor para cifrar e esconder o tráfego com o[ORGANIZATION_4b1d4a2870] básico do [ORGANIZATION_54947c67d4].
-* O que é o malware SystemBC?
-SystemBC é um backdoor que pode ser utilizado como um proxy ou como
-  uma ferramenta de administração remota, além disso, o SystemBC tem a capacidade de
-  usar o Tor para cifrar e esconder o tráfego com o[ORGANIZATION_1c830a68e6] e Controle.
-* O que é o malware SystemBC?
-SystemBC é um backdoor que pode ser utilizado como um proxy ou como
-  uma ferramenta de administração remota, além disso, o SystemBC tem a capacidade de
-  usar o Tor para cifrar e esconder o tráfego com o[ORGANIZATION_143e52685e] e Controle.
-* O que é o malware SystemBC?
-SystemBC é um backdoor que pode ser utilizado como um proxy ou como
-  uma ferramenta de administração remota, além disso, o SystemBC tem a capacidade de
-  usar o Tor para cifrar e esconder o tráfego com o[ORGANIZATION_9634d99a56] do [ORGANIZATION_a2bd6c582d].
-* O que é o malware SystemBC?
-SystemBC é um backdoor que pode ser utilizado como um proxy ou como
-  uma ferramenta de administração remota, além disso, o SystemBC tem a capacidade de
-  usar o Tor para cifrar e esconder o tráfego com o[ORGANIZATION_4b1d4a2870] básico do [ORGANIZATION_54947c67d4].
-* O que é o malware SystemBC?
-SystemBC é um backdoor que pode ser utilizado como um proxy ou como
-  uma ferramenta de administração remota, além disso, o SystemBC tem a capacidade de
-  usar o Tor para cifrar e esconder o tráfego com o[ORGANIZATION_1c830a68e6] e Controle.
-* O que é o malware SystemBC?
-SystemBC é um backdoor que pode ser utilizado como um proxy ou como
-  uma ferramenta de administração remota, além disso, o SystemBC tem a capacidade de
-  usar o Tor para cifrar e esconder o tráfego com o[ORGANIZATION_143e52685e] e Controle.
-* O que é o malware SystemBC?
-SystemBC é um backdoor que pode ser utilizado como um proxy ou como
-  uma ferramenta de administração remota, alé</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>RNP2023-049266</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>[CERT.br/NIC.br]
-======================================================================
-Formato: FirstSeen, LastSeen, Victim IP, Victim Windows Domain, Victim Windows Account, C2 host
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_0e23a8a282],DESKTOP-R5TTI9I,Bruno Ricardo,[IP_ADDRESS_a43f7d0ad1],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,danie
-[DATE_TIME_63f1792f7f] 22:00,[DATE_TIME_c5236dabaf] 22:00,[IP_ADDRESS_652e70303e],LAPTOP-73057EU7,dan</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>RNP2023-056851</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Based on the input and output provided by the user, I can classify the incident as follows:
-- Category: Unknown
-- Description: An attack from a compromised IP address (IP_ADDRESS_984299dc8f) has been detected. The attacker is using a compromised server to access sensitive data.
-- Explanation: The attacker's actions are unauthorized, and they have breached the security of the network. They are trying to gain access to sensitive data without proper authorization or clearance.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>{'Category': 'Unknown- Description: An attack from a compromised IP address (IP_ADDRESS_984299dc8f) has been detected. The attacker is using a compromised server to access sensitive data.-', 'Explanation': "The attacker's actions are unauthorized, and they have breached the security of the network. They are trying to gain access to sensitive data without proper authorization or clearance."}</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Unknown- Description: An attack from a compromised IP address (IP_ADDRESS_984299dc8f) has been detected. The attacker is using a compromised server to access sensitive data.-</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>The attacker's actions are unauthorized, and they have breached the security of the network. They are trying to gain access to sensitive data without proper authorization or clearance.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>RNP2022-025034</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CERT.br works as a coordinating team for incidents and abuses related to Brazilian networks. We are listed in the "remarks" notes of the Brazilian Whois Server output to receive copies of complaints, but we are not the technical or abuse contact of any network.
+          <t xml:space="preserve">CERT.br works as a coordinating team for incidents and abuses related to Brazilian networks. We are listed in the "remarks" notes of the Brazilian Whois Server output to receive copies of complaints, but we are not the technical or abuse contact of any network.
 We are forwarding your email to the proper contacts for this network so they can handle this incident.
 Original message was attached to this email.
 Thank you for reporting this incident,
 --
 CERT.br/NIC.br
-&lt;[EMAIL_ADDRESS_f6f708634b2]&gt;
-[URL_ea4f5d47bf]
+&lt;[EMAIL_ADDRESS_83824c64b2]&gt;
+[URL_ef2283438e]
 =======================================================================
 ----- Original message as text -----
-From: [ORGANIZATION_dc2075266f] &lt;[EMAIL_ADDRESS_984299dc8f]]
-To: [EMAIL_ADDRESS_c4122f8a60],[EMAIL_ADDRESS_83824c64b2],[EMAIL_ADDRESS_b581710d67]
-Subject: Abuse from [IP_ADDRESS_984299dc8f], which according to a abusix.com is on your network. We would appreciate if you would investigate and take action as appropriate.
-From: [ORGANIZATION_6111afcbba] &lt;[EMAIL_ADDRESS_ce6d30935e]]
-To: [EMAIL_ADDRESS_8678319572],[EMAIL_ADDRESS_b4cbeaecfda]
-Subject: Abuse from [IP_ADDRESS_984299dc8f], which according to a abusix.com is on your network. We would appreciate if you would investigate and take action as appropriate.
-From: [ORGANIZATION_6111afcbba] &lt;[EMAIL_ADDRESS_ce6d30935e]]
-To: [EMAIL_ADDRESS_83824c64b2],[EMAIL_ADDRESS_f8697f62bd]:
-PASS OLD [IP_ADDRESS_984299dc8f]: 1100 to [[EMAIL_ADDRESS_ce6d30935e]] from [ORGANIZATION_6111afcbba]
-May 13 04:07:34 mail postfix/smtpd[22761]: connect from pfsense-svp.furg.br[[IP_ADDRESS_984299dc8f]]
-May 13 04:07:35 mail postfix/smtpd[22761]: NOQUEUE: filter: RCPT from pfsense-svp.furg.br[[IP_ADDRESS_984299dc8f]]
-May 13 04:07:35 mail postfix/smtpd[22761]: NOQUEUE: filter: RCPT from pfsense-svp.furg.br[[IP_ADDRESS_984299dc8f]]
-May 13 04:07:35 mail postfix/smtpd[22761]: NOQUEUE: reject: RCPT from pfsense-svp.furg.br[[IP_ADDRESS_984299dc8f]]
-May 13 04:07:35 mail postfix/postscreen[26654]: CONNECT from [[IP_ADDRESS_984299dc8f]]:17728 to [[IP_ADDRESS_f8697f62bd]:25]
-May 13 04:07:35 mail postfix/postscreen[26654]: PASS OLD [IP_ADDRESS_984299dc8f]: 17728
-May 13 04:07:35 mail postfix/smtpd[22702]: connect from pfsense-svp.furg.br[[IP_ADDRESS_984299dc8f]]
-May 13 04:07:36 mail postfix/postscreen[26654]: PASS OLD [IP_ADDRESS_984299dc8f]: 550 5.1.1 &lt;[EMAIL_ADDRESS_9c959fe233]&gt;: Recipient address triggered FILTER smtp-amavis:[[IP_ADDRESS_12ca17b49a]:10026; from=&lt;[EMAIL_ADDRESS_77220e9368]&gt; to=&lt;[EMAIL_ADDRESS_9c959fe233]&gt; proto=ESMTP helo=&lt;pfsense-svp.furg.br&gt;
-May 13 04:08:00 mail postfix/postscreen[26654]: CONNECT from [[IP_ADDRESS_984299dc8f]]:17728 to [[IP_ADDRESS_f8697f62bd]:25]
-May 13 04:08:01 mail postfix/postscreen[26654]: PASS OLD [IP_ADDRESS_984299dc8f]: 17728
-May 13 04:08:01 mail postfix/smtpd[22702]: connect from pfsense-svp.furg.br[[IP_ADDRESS_984299dc8f]]
-May 13 04:08:01 mail postfix/smtpd[22702]: NOQUEUE: filter: RCPT from pfsense-svp.furg.br[[IP_ADDRESS_984299dc8f]]
-May 13 04:08:01 mail postfix/smtpd[22702]: NOQUEUE: filter: RCPT from pfsense-svp.furg.br[[IP_ADDRESS_984299dc8f]]
-May 13 04:08:01 mail postfix/smtpd[22761]: lost connection after DATA from pfsense-svp.furg.br [[IP_ADDRESS_984299dc8f]]:550 5.1.1 &lt;[EMAIL_ADDRESS_9c959fe233]&gt;: Recipient address rejected: mega.kg; from=&lt;[EMAIL_ADDRESS_77220e9368]&gt; to=&lt;[EMAIL_ADDRESS_9c959fe233]&gt; proto=ESMTP helo=&lt;pfsense-svp.furg.br&gt;
-May 13 04:08:01 mail postfix/postscreen[26654]: CONNECT from [[IP_ADDRESS_984299dc8f]]:17728 to [[IP_ADDRESS_f8697f62bd]:25]
-May 13 04:08:01 mail postfix/postscreen[26654]: PASS OLD [IP_ADDRESS_984299dc8f]: 17728
-May 13 04:08:01 mail postfix/smtpd[22702]: connect from pfsense-svp.furg.br[[IP_ADDRESS_984299dc8f]]
-May 13 04:08:01 mail postfix/smtpd[22702]: NOQUEUE: filter: RCPT from pfsense-svp.furg.br[[IP_ADDRESS_984299dc8f]]
-May 13 04:08:01 mail postfix/smtpd[22761]: lost connection after DATA from pfsense-svp.furg.br [[IP_ADDRESS_984299dc8f]]:550 5.1.1 &lt;[EMAIL_ADDRESS_9c959fe233]&gt;: Recipient address rejected: mega.kg; from=&lt;[EMAIL_ADDRESS_77220e9368]&gt; to=&lt;[EMAIL_ADDRESS_9c959fe233]&gt; proto=ESMTP helo</t>
+From: [EMAIL_ADDRESS_a6be39e7e9],[EMAIL_ADDRESS_f6f7086365],[EMAIL_ADDRESS_b29a075d57],[EMAIL_ADDRESS_c4122f8a60],[EMAIL_ADDRESS_83824c64b2]
+To: [EMAIL_ADDRESS_adffeacbe16],[EMAIL_ADDRESS_adffeb9ed9],[EMAIL_ADDRESS_abef57dce9],[EMAIL_ADDRESS_a0a85d701e]
+Subject: Abuse from [IP_ADDRESS_b29a075d57], which according to a whois lookup is on your network. We would appreciate if you would investigate and take action as appropriate.
+Date: Thu, 24 Mar 2022 16:35:03 +0100 (CET)
+Message-ID: &lt;[EMAIL_ADDRESS_adffeacbe16]&gt;
+Dear Sir/Madam,
+We have detected abuse from the IP address [IP_ADDRESS_b29a075d57], which according to a whois lookup is on your network. We would appreciate if you would investigate and take action as appropriate.
+Log lines are given below, but please ask if you require any further information.
+(If you are not the correct person to contact about this please accept our apologies - your e-mail address was extracted from the whois record by an automated process.)
+Note: Local timezone is +0100 (CET)
+Mar 24 15:39:33 rudra sshd[976744]: Invalid user tracy from [IP_ADDRESS_b29a075d57]
+Mar 24 15:39:33 rudra sshd[976744]: Failed password for invalid user tracy from [IP_ADDRESS_b29a075d57] port 48910 ssh2
+Mar 24 15:39:35 rudra sshd[976744]: Received disconnect from [IP_ADDRESS_b29a075d57]: 11: Bye Bye [preauth]
+Mar 24 15:48:02 rudra sshd[977019]: Invalid user wrc from [IP_ADDRESS_b29a075d57] port 48910 ssh2
+Mar 24 15:48:05 rudra sshd[977019]: Failed password for invalid user wrc from [IP_ADDRESS_b29a075d57] port 52350 ssh2
+Mar 24 15:48:06 rudra sshd[977019]: Received disconnect from [IP_ADDRESS_b29a075d57]: 11: Bye Bye [preauth]
+Mar 24 15:59:07 rudra sshd[979638]: Invalid user uftp from [IP_ADDRESS_b29a075d57] port 52350 ssh2
+Mar 24 15:59:09 rudra sshd[979638]: Failed password for invalid user uftp from [IP_ADDRESS_b29a075d57] port 52940 ssh2
+Mar 24 15:59:09 rudra sshd[979638]: Received disconnect from [IP_ADDRESS_b29a075d57]: 11: Bye Bye [preauth]
+Mar 24 15:59:10 rudra sshd[979843]: Invalid user kiri from [IP_ADDRESS_b29a075d57] port 52940 ssh2
+Mar 24 15:59:10 rudra sshd[979843]: Received disconnect from [IP_ADDRESS_b29a075d57]: 11: Bye Bye [preauth]
+Mar 24 16:01:28 rudra sshd[979923]: Invalid user joan from [IP_ADDRESS_b29a075d57] port 52940 ssh2
+Mar 24 16:01:28 rudra sshd[979923]: Received disconnect from [IP_ADDRESS_b29a075d57]: 11: Bye Bye [preauth]
+Mar 24 16:03:42 rudra sshd[980038]: Invalid user kiri from [IP_ADDRESS_b29a075d57] port 52940 ssh2
+Mar 24 16:03:45 rudra sshd[980038]: Received disconnect from [IP_ADDRESS_b29a075d57]: 11: Bye Bye [preauth]
+Mar 24 16:03:46 rudra sshd[980038]: Failed password for invalid user kiri from [IP_ADDRESS_b29a075d57] port 53516 ssh2
+Ma
+</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>RNP2022-026802</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Based on the provided information, the categorization for the incident described in the doc is:
+CAT1: Account Compromise
+CAT2: Malware
+CAT3: Denial of Service Attack
+CAT4: Data Leak
+CAT5: Insider Abuse
+CAT6: Unauthorized Modification
+CAT7: Malware Extraction
+CAT8: SaaS Breach
+CAT9: Supply-Chain Compromise
+CAT10: Third Party Issues
+CAT12: Intrusion Attempt
+CAT13: Abuse From [IP_ADDRESS_984299dc8f]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>{'Category': 'Abuse From [IP_ADDRESS_984299dc8f]', 'Explanation': 'Based on the provided information, the categorization for the incident described in the doc is:\nCAT1: Account Compromise\nCAT2: Malware\nCAT3: Denial of Service Attack\nCAT4: Data Leak\nCAT5: Insider Abuse\nCAT6: Unauthorized Modification\nCAT7: Malware Extraction\nCAT8: SaaS Breach\nCAT9: Supply-Chain Compromise\nCAT10: Third Party Issues\nCAT12: Intrusion Attempt\nCAT13: Abuse From [IP_ADDRESS_984299dc8f]'}</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Abuse From [IP_ADDRESS_984299dc8f]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Based on the provided information, the categorization for the incident described in the doc is:
+CAT1: Account Compromise
+CAT2: Malware
+CAT3: Denial of Service Attack
+CAT4: Data Leak
+CAT5: Insider Abuse
+CAT6: Unauthorized Modification
+CAT7: Malware Extraction
+CAT8: SaaS Breach
+CAT9: Supply-Chain Compromise
+CAT10: Third Party Issues
+CAT12: Intrusion Attempt
+CAT13: Abuse From [IP_ADDRESS_984299dc8f]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>RNP2022-042745</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Based on the provided information, the classification for this incident can be classified as:
+- **CAT5**: The attacker exploited vulnerabilities in their network infrastructure (e.g., SSH tunneling) to gain unauthorized access and breach their system.
+- **CAT6**: The attacker used a vulnerability in their software or hardware to compromise their system, leading to the attack.
+- **CAT7**: The attacker exploited an open vulnerability in their software or hardware to compromise their system, allowing them to steal sensitive data.
+- **CAT8**: The attacker used a malicious code exploit (e.g., SQL injection) to gain unauthorized access and breach their system.
+- **CAT9**: The attacker used a malicious code exploit (e.g., DDoS attack) to compromise their system, allowing them to steal sensitive data.
+- **CAT10**: The attacker exploited an open vulnerability in their software or hardware to compromise their system, allowing them to access unauthorized data.
+Based on the classification provided above, this incident falls under Category: [CAT5] (Malware) and Category: [CAT6].</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RNP2022-026209</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>The categorization of this incident is as follows:
+- **CAT1:** Account Compromise (e.g., account hijacking)
+- **CAT2:** Malware (e.g., ransomware attack)
+- **CAT3:** Denial of Service Attack (e.g., VIRUS EXPLOIT, SYN Flood, HTTP/HTTPS Flood)
+- **CAT4: Data Leak (e.g., database theft)
+- **CAT5: Vulnerability Exploitation (e.g., exploit, RCE, SQL injection)
+- **CAT6:** Insider Abuse (e.g., CEO fraud, SPAM)
+- **CAT7: Social Engineering (e.g., VIRUS EXPLOIT, SYN Flood, DMARC)
+- **CAT8: Physical Incident (e.g., Network scans, brute force attempts)**
+- **CAT9: Unauthorized Modification**
+- **CAT10: Misuse of Resources**
+- **CAT12:** Intrusion Attempt (e.g., attack on Windows Domain)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RNP2023-049266</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[URL_ef2283438e]
+[URL_ce6cd54a0d]
+[URL_1c830a68e6]
+[URL_bruno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL_c42198d6f7a]
+[URL_breno ricardo]
+[URL_danie]
+[URL_lapTOP-73057EU7]
+[URL_bernardus]
+[URL_lanuage.br]
+[URL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RNP2023-056851</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Based on the input text, we can classify the incident as follows:
+- Category: Account Compromise (CAT1)
+- Description: An unauthorized access to user or administrator accounts.
+- Classification: [Cat number] - [Description]
+- Category: Malware (cat 2)
+- Description: An attack on a system by malicious code.
+- Classification: [Category number] - [Description]
+- Category: Denial of Service Attack (cat 3)
+- Description: An unauthorized disclosure of sensitive data.
+- Classification: [Cat number] - [Description]
+- Category: Unauthorized Modification (cat 4)
+- Description: An unauthorized change to systems or data.
+- Classification: [Category number] - [Description]
+- Category: Intrusion Attempt (cat 5)
+- Description: An unauthorized attempt to access a system by exploiting vulnerabilities in the network infrastructure.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>RNP2022-025034</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Based on the provided information, the Category and Description are:
+- Category: [CAT1]: Account Compromise
+- Description: [Description of the incident](https://www.nicefaces.com/en_us/newsletters/2022/53f679b84a)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -847,7 +954,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[Cat1: Account Compromise](https://www.huggingface.com/blog/2023-03-28-cat1)</t>
+          <t>[CERT.br]
+[URL_ef2283438e]: 2023-03-29T17:56:00Z [IP_ADDRESS_f2e60f5baa].55335 &gt; xxx.xxx.xxx.65.3306: S 313220211:313220211(0) win 8192 &lt;mss 1460,nop,wscale 2,nop,nop,sackOK&gt; (DF) [tos 0x4]
+[URL_5810c4d807]: 2023-03-29T17:56:00Z [IP_ADDRESS_f2e60f5baa].55339 &gt; xxx.xxx.xxx.65.3306: S 1143095924:1143095924(0) win 8192 &lt;mss 1460,nop,wscale 2,nop,nop,sackOK&gt; (DF) [tos 0x4]
+[URL_a7aa88ecb7]: 2023-03-29T17:56:00Z [IP_ADDRESS_f2e60f5baa].55343 &gt; xxx.xxx.xxx.65.3306: S 1143095924:1143095924(0) win 8192 &lt;mss 1460,nop,wscale 2,nop,nop,sackOK&gt; (DF) [tos 0x4]
+[URL_a7aa88ecb7]: 2023-03-29T17:56:00Z [IP_ADDRESS_f2e60f5baa].55348 &gt; xxx.xxx.xxx.65.3306: S 2421180768:2421180768(0) win 8192 &lt;mss 1460,nop,wscale 2,nop,nop,sackOK&gt; (DF) [tos 0x4]
+[URL_a7aa88ecb7]: 2023-03-29T17:56:00Z [IP_ADDRESS_f2e60f5baa].55351 &gt; xxx.xxx.xxx.65.3306: S 2955572537:2955572537(0) win 8192 &lt;mss 1460,nop,wscale 2,nop,nop,sackOK&gt; (DF) [tos 0x4]
+[URL_a7aa88ecb7]: 2023-03-29T17:56:00Z [IP_ADDRESS_f2e60f5baa].55355 &gt; xxx.xxx.xxx.65.3306: S 2421180768:2421180768(0) win 8192 &lt;mss 1460,nop,wscale 2,nop,nop,sackOK&gt; (DF) [tos 0x4]
+[URL_a7aa88ecb7]: 2023-03-29T17:56:00Z [IP_ADDRESS_f2e60f5baa].55364 &gt; xxx.xxx.xxx.65.3306: S 1783005791:1783005791(0) win 8192 &lt;mss 1460,nop,wscale 2,nop,nop,sackOK&gt; (DF) [tos 0x4]
+[URL_a7aa88ecb7]: 2023-03-29T17:56:00Z [IP_ADDRESS_f2e60f5baa].55368 &gt; xxx.xxx.xxx.66.3306: S 2421180768:2421180768(0) win 8192 &lt;mss 1460,nop,wscale 2,nop,nop,sackOK&gt; (DF) [tos 0x4]
+[URL_a7aa88ecb7]: 2023-03-29T17:56:00Z [IP_ADDRESS_f2e60f5baa].55371 &gt; xxx.xxx.xxx.67.3306: S 2955572537:2955572537(0) win 8192 &lt;mss 1460,nop,wscale 2,nop,nop,sackOK&gt; (DF) [tos 0x4]
+[URL_a7aa88ecb7]: 2023-03-29T17:56:00Z [IP_ADDRESS_f2e60f5baa].55375 &gt; xxx.xxx.xxx.68.3306: S 2421180768:2421180768(0) win 8192 &lt;mss 1460,nop,wscale 2,nop,nop,sackOK&gt; (DF) [tos 0x4]
+[URL_a7aa88ecb7]: 2023-03-29T17:56:00Z [IP_ADDRESS_f2e60f5baa].55379 &gt; xxx.xxx.xxx.69.3306: S 146901982:146901982(0) win 8192 &lt;mss 1460,nop,wscale 2,nop,nop,sackOK&gt; (DF) [tos 0x4]
+[URL_a7aa88ecb7]: 2023-03-29T17:56:00Z [IP_ADDRESS_f2e60f5baa].55380 &gt; xxx.xxx.xxx.70.3306: S 2421180768:2421180768(0) win 8192 &lt;mss 1460,nop,wscale 2,nop,nop,sackOK&gt; (DF) [tos 0x4]
+[URL_a7aa88ecb7]: 2023-03-29T17:56:00Z [IP_ADDRESS_f2e60f5baa].55384 &gt; xxx.xxx.xxx.71.3306: S 2665389169:2665389169(0) win 8192 &lt;mss 1460,nop,wscale 2,nop,nop,sackOK&gt; (DF) [tos 0x4]
+[URL_a7aa88ecb7]: 2023-03-29T17:56:00Z [IP_ADDRESS_f2e60f5baa].55388 &gt; xxx.xxx.xxx.72.3306: S 2421180768:2421180768(0) win 8192 &lt;mss 1460,nop,wscale 2,nop,nop,sackOK&gt; (DF) [tos 0x4]
+[URL_a7aa88ecb7]: 2023-03</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -874,53 +996,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CERT.br/NIC.br
-&lt;[EMAIL_ADDRESS_83824c64b2]&gt;
-[URL_ea4f5d47bf]
-=======================================================================
------ Original message as text -----
-From: [ORGANIZATION_1df86da352] DDoS notifier &lt;[EMAIL_ADDRESS_92a6206f7f]&gt;
-To: [EMAIL_ADDRESS_83824c64b2]
-Subject: Compromised host used for an attack: [IP_ADDRESS_43f72b8354] [~183 Mbps]
-Date: Fri, 7 Oct 2022 01:29:50 -0700
-Message-ID: &lt;[EMAIL_ADDRESS_24794d68b6]&gt;
-An IP address ([IP_ADDRESS_43f72b8354]) under your control appears to have attacked one of our customers as part of a coordinated DDoS botnet. We manually reviewed the captures from this attack and do not believe that your IP address was spoofed, based on the limited number of distinct hosts attacking us, the identicality of many attacking IP addresses to ones we've seen in the past, and the non-random distribution of IP addresses.
-It is possible that this host is one of the following, from the responses that others have sent us:
-- A compromised router, such as a [ORGANIZATION_4fa360a1dd] that is running with WAN access enabled; a [ORGANIZATION_9954db40ae] which still allows a default admin username and password; a Netis, with a built-in internet-accessible backdoor ([URL_2764a7b048]); or one running an old AirOS version with a vulnerable and exposed administrative interface
-- An IPTV device that is vulnerable to compromise (such as HTV), either directly through the default firmware or through a trojan downloaded app
-- A compromised webhost, such as one running a vulnerable version of Drupal (for instance, using the vulnerability discussed at [URL_9346d9f602])
-- A compromised DVR, such as a "Hikvision" brand device (ref: [URL_4d5849d65d])
-- A compromised IPMI device, such as one made by [ORGANIZATION_e8804ebb01] (possibly because it uses the vulnerability discussed at [URL_643058c363]), WordPress, phpMyAdmin, or zPanel
-- A compromised DVR, such as a "Hikvision" brand device (ref: [URL_9346d9f602])
-- A compromised IPMI device, such as one made by [ORGANIZATION_e8804ebb01] (possibly because it uses the vulnerability discussed at [URL_643058c363]), WordPress, phpMyAdmin, or zPanel
-- A compromised DVR, such as a "Hikvision" brand device (ref: [URL_9346d9f602])
-- A compromised IPMI device, such as one made by [ORGANIZATION_e8804ebb01] (possibly because it uses the vulnerability discussed at [URL_643058c363]), WordPress, phpMyAdmin, or zPanel
-- A compromised DVR, such as a "Hikvision" brand device (ref: [URL_9346d9f602])
-- A compromised IPMI device, such as one made by [ORGANIZATION_e8804ebb01] (possibly because it uses the vulnerability discussed at [URL_643058c363]), WordPress, phpMyAdmin, or zPanel
-- A compromised DVR, such as a "Hikvision" brand device (ref: [URL_9346d9f602])
-- A compromised IPMI device, such as one made by [ORGANIZATION_e8804ebb01] (possibly because it uses the vulnerability discussed at [URL_643058c363]), WordPress, phpMyAdmin, or zPanel
-- A compromised DVR, such as a "Hikvision" brand device (ref: [URL_9346d9f602])
-- A compromised IPMI device, such as one made by [ORGANIZATION_e8804ebb01] (possibly because it uses the vulnerability discussed at [URL_643058c363]), WordPress, phpMyAdmin, or zPanel
-- A compromised DVR, such as a "Hikvision" brand device (ref: [URL_9346d9f602])
-- A compromised IPMI device, such as one made by [ORGANIZATION_e8804ebb01] (possibly because it uses the vulnerability discussed at [URL_643058c363]), WordPress, phpMyAdmin, or zPanel
-- A compromised DVR, such as a "Hikvision" brand device (ref: [URL_9346d9f602])
-- A compromised IPMI device, such as one made by [ORGANIZATION_e8804ebb01] (possibly because it uses the vulnerability discussed at [URL_643058c363]), WordPress, phpMyAdmin, or zPanel
-- A compromised DVR, such as a "Hikvision" brand device (ref: [URL_9346d9f602])
-- A compromised IPMI device, such as one made by [ORGANIZATION_e8804ebb01] (possibly because it uses the vulnerability discussed at [URL_643058c363]), WordPress, phpMyAdmin, or zPanel
-- A compromised DVR, such as a "Hikvision" brand device (ref: [URL_9346d9f602])
-- A compromised IPMI device, such as one made by [ORGANIZATION_e8804ebb01] (possibly because it uses the vulnerability discussed at [URL_643058c363]), WordPress, phpMyAdmin, or zPanel
-- A compromised DVR, such as a "Hikvision" brand device (ref: [URL_9346d9f602])
-- A compromised IPMI device, such as one made by [ORGANIZATION_e8804ebb01] (possibly because it uses the vulnerability discussed at [URL_643058c363]), WordPress, phpMyAdmin, or zPanel
-- A compromised DVR, such as a "Hikvision" brand device (ref: [URL_9346d9f602])
-- A compromised IPMI device, such as one made by [ORGANIZATION_e8804ebb01] (possibly because it uses the vulnerability discussed at [URL_643058c363]), WordPress, phpMyAdmin, or zPanel
-- A compromised DVR, such as a "Hikvision" brand device (ref: [URL_9346d9f602])
-- A compromised IPMI device, such as one made by [ORGANIZATION_e8804ebb01] (possibly because it uses the vulnerability discussed at [URL_643058c363]), WordPress, phpMyAdmin, or zPanel
-- A compromised DVR, such as a "Hikvision" brand device (ref: [URL_9346d9f602])
-- A compromised IPMI device, such as one made by [ORGANIZATION_e8804ebb01] (possibly because it uses the vulnerability discussed at [URL_643058c363]), WordPress, phpMyAdmin, or zPanel
-- A compromised DVR, such as a "Hikvision" brand device (ref: [URL_9346d9f602])
-- A compromised IPMI device, such as one made by [ORGANIZATION_e8804ebb01] (possibly because it uses the vulnerability discussed at [URL_643058c363]), WordPress, phpMyAdmin, or zPanel
-- A compromised DVR, such as a "Hikvision" brand device (ref: [URL_9346d9f602])
-- A compromised IPMI device, such as one made by [ORGANIZATION_e8804</t>
+          <t>The classification of this incident is **cat 1** (account compromise). The incident occurred on a network that was used for unauthorized access or data breaches. The attacker gained control over the host and exploited its vulnerabilities to cause significant damage.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -951,13 +1027,12 @@
 [URL_ea4f5d47bf]
 [Email Address]
 [Address]
-[Date]
-[Subject]
-[Keywords]
-[Description]
-[Question]
-[Response]
-[Response Text]</t>
+[Phone Number]
+[Email Address]
+[Address]
+[Phone Number]
+[Email Address]
+[Address]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -984,7 +1059,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CERT.br/NIC.br
+          <t xml:space="preserve">CERT.br/NIC.br
 &lt;[EMAIL_ADDRESS_83824c64b2]&gt;
 [URL_ea4f5d47bf]
 =======================================================================
@@ -998,15 +1073,62 @@
 It is possible that this host is one of the following, from the responses that others have sent us:
 - A compromised router, such as a [ORGANIZATION_4fa360a1dd] that is running with WAN access enabled; a [ORGANIZATION_9954db40ae] which still allows a default admin username and password; a Netis, with a built-in internet-accessible backdoor ([URL_2764a7b048]); or one running an old AirOS version with a vulnerable and exposed administrative interface
 - An [ORGANIZATION_8df3b93efb] device that is vulnerable to compromise (such as HTV), either directly through the default firmware or through a trojan downloaded app
-- A compromised webhost, such as one running a vulnerable version of DUPLEX, WordPress, phpMyAdmin, or zPanel
+- A compromised webhost, such as one running a vulnerable version of Drupal (for instance, using the vulnerability discussed at [URL_4d5849d65d])
 - A compromised DVR, such as a "Hikvision" brand device (ref: [URL_4d5849d65d])
-- A compromised Xerox-branded device
-- Some other compromised standalone device
-- A server with an insecure password that was brute-forced, such as through SSH or RDP
+- A compromised IPMI device, such as one made by [ORGANIZATION_e8804ebb01] (possibly because it uses the vulnerability discussed at [URL_643058c363])
+- A compromised server with an insecure password that was brute-forced, such as through SSH or RDP
 - A server running an improperly secured Hadoop installation
 - A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
-- A server running a compromised DNS server (through the July 2020 critical vulnerability)
-The overall botnet attack was Nx10Gbps in size (with traffic from your host as well as some others) and caused significant packet loss for our clients due to external link saturation. It required an emergency null-route operation on our side to mitigate.</t>
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running an improperly secured Hadoop installation
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running an improperly secured Hadoop installation
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running an improperly secured Hadoop installation
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running an improperly secured Hadoop installation
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running an improperly secured Hadoop installation
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running an improperly secured Hadoop installation
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running an improperly secured Hadoop installation
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running an improperly secured Hadoop installation
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running an improperly secured Hadoop installation
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running an improperly secured Hadoop installation
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running an improperly secured Hadoop installation
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running an improperly secured Hadoop installation
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running an improperly secured Hadoop installation
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running an improperly secured Hadoop installation
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running an improperly secured Hadoop installation
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running an improperly secured Hadoop installation
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+- A server running a pre-13.10.3 GitLab instance that is vulnerable to CVE-2021-22205
+</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1033,18 +1155,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>The following categories are available for classification of an incident described in the provided text:
-- **CAT1: Account Compromise** – unauthorized access to user or administrator accounts.
-- **CAT2: Malware** – infection by malicious code.
-- **CAT3: Denial of Service Attack** – making systems unavailable.
-- **CAT4: Data Leak** – unauthorized disclosure of sensitive data.
-- **CAT5: Vulnerability Exploitation** – using technical flaws for attacks.
-- **CAT6: Insider Abuse** – malicious or negligent actions by internal users.
-- **CAT7: Social Engineering** – deception to gain access or data.
-- **CAT8: Physical Incident** – unauthorized physical access or impact.
-- **CAT9: Unauthorized Modification** – improper changes to systems or data.
-- **CAT10: Misuse of Resources** – using systems for non-authorized purposes.
-- **CAT12: Intrusion Attempt** – unconfirmed or prevented attacks.</t>
+          <t xml:space="preserve">[URL_ea4f5d47bf]
+CERT.br/NIC.br
+&lt;[EMAIL_ADDRESS_83824c64b2]&gt;
+[URL_e147fd18f2]
+  [URL_3cf7704766]
+If classification is not possible, return:
+Category: Unknown  
+Explanation: Unknown
+</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1071,19 +1190,28 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Based on the information provided in the document, here are some key points about the classification of the incident:
-1. The incident was classified as a "Security Incident" (CAT5) with an "Attack Type" of "Malware" and a "Risk Level" of "Unauthorized Access".
-2. The incident involved unauthorized access to user or administrator accounts, which is a risk level of "Unauthorized Modification", indicating that the attacker was able to alter sensitive data without permission.
-3. The incident also involved unauthorized modification of systems or data, which is a risk level of "Misuse of Resources".
-4. The incident's description includes information about the IP address and port number used by the attackers, as well as the date and time when it occurred.
-Based on these points, I can conclude that the classification of this incident was:
-Category: Unknown
-Explanation: This is a risk level of "Unauthorized Modification" with an "Attack Type" of "Malware".</t>
+          <t>The following categories are available for classification of an incident described in the document:
+1. **CAT 1**: Account Compromise
+   - Description: An unauthorized access to user or administrator accounts.
+   - Search terms: [account compromise]
+2. **CAT 2**: Malware
+   - Description: Infection by malicious code.
+   - Search terms: [malware, ransomware, Trojan horse, macro virus]
+3. **CAT 3**: Denial of Service Attack
+   - Description: Attack on a website or service to prevent access.
+   - Search terms: [daemonization, denial of service, botnet, exploit, reverse DNS attack]
+4. **CAT 4**: Data Leak
+   - Description: Information being leaked from a system or data storage.
+   - Search terms: [data leak, unauthorized disclosure, data breach, data theft, data exfiltration]
+5. **CAT 5**: Insider Abuse
+   - Description: Misuse of sensitive information by internal users.
+   - Search terms: [insider abuse, vulnerability, exploitation, spoofing, man-in-the-middle attack]
+The document describes an incident where unauthorized access to user or administrator accounts was detected and the system was compromised due to a ransomware attack.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{'Category': 'Unknown', 'Explanation': 'This is a risk level of "Unauthorized Modification" with an "Attack Type" of "Malware".'}</t>
+          <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1093,7 +1221,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>This is a risk level of "Unauthorized Modification" with an "Attack Type" of "Malware".</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1105,49 +1233,47 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Based on the given information, I can classify the incident as follows:
-- Category: Account Compromise
-- Description: An unauthorized access or data breach occurred at the IP address of Torres.
-- Context: The attack was perpetrated by a malicious user who attempted to gain access to sensitive systems through compromised credentials and targeted attacks on our organization's web servers.
-- Key information: Torres is an IT professional with a background in cybersecurity, and he has been working for the company for several years. He has experience identifying vulnerabilities in various software applications and has been trained on security best practices.
-- Classification: Account Compromise
-- Category: Malware/Intrusion Attempts
-- Description: An unauthorized access or data breach occurred at the IP address of Torres, resulting in a compromised system being targeted by malicious users who attempted to exploit vulnerabilities within our organization's web servers and other systems.</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>RNP2021-014273</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Based on the provided information, we can classify the incident as follows:
+          <t>Based on the classification provided, we can classify the incident as follows:
 - **CAT1: Account Compromise**: unauthorized access to user or administrator accounts.
 - **CAT2: Malware**: infection by malicious code.
-- **CAT3: Denial of Service Attack**: making systems unavailable due to malware or other unauthorized actions.
+- **CAT3: Denial of Service Attack**: making systems unavailable.
 - **CAT4: Data Leak**: unauthorized disclosure of sensitive data.
 - **CAT5: Vulnerability Exploitation**: using technical flaws for attacks.
 - **CAT6: Insider Abuse**: malicious or negligent actions by internal users.
 - **CAT7: Social Engineering**: deception to gain access or data.
-- **CAT8: Physical Incident**: unauthorized physical access or impact.</t>
+- **CAT8: Physical Incident**: unauthorized physical access or impact.
+- **CAT9: Unauthorized Modification**: improper changes to systems or data.
+- **CAT10: Misuse of Resources**: using systems for non-authorized purposes.
+- **CAT11: Third-Party Issues**: security incidents from suppliers or service providers.
+- **CAT12: Intrusion Attempts**: unauthorized physical access, suspicious login attempts, and malicious code.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>RNP2021-014273</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>The SSDP (Simple Service Discovery Protocol) is a protocol used for remote management of devices. It's an important tool in network security and can be configured using various options to suit different needs. The description provided mentions that the SSDP (Simple Service Discovery Protocol) is a protocol used for remote management, which could refer to any type of remote management service or technology.
+The classification "unknown" indicates that there are no specific categories available in this document.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1174,24 +1300,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>The user has classified an incident as "Account Compromise" and requested a concise explanation of why it was classified. The user provided a list of IP addresses in the log file that were configured to use NTP for authentication purposes (Monlist), readvar, and other services. They also asked for clarification on why the system was not allowed to access certain resources due to its unusual behavior.
-The classification is "Account Compromise" because it refers to an unauthorized access or data breach of a user account. The user requested information about the reasons behind this classification, which included:
-1. Unauthorized access to sensitive data (e.g., financial records)
-2. Data tampering and manipulation
-3. Physical damage caused by cyber attacks
-4. Physical breaches due to lack of security measures
-5. Security compromise from suppliers or service providers
-6. Potential for future attacks due to increased vulnerability
-7. Potential impact on business operations (e.g., disruption, cost savings)
-8. Potential consequences of not addressing the issue promptly
-9. Possible remediation efforts by the organization
-10. Suggestions for further investigation and action
-The user also requested clarification about why the system was not allowed to access certain resources due to its unusual behavior. They asked for information on why the system was not allowed to access certain resources, including:
-1. Physical damage caused by cyber attacks (e.g., network downtime)
-2. Physical breaches due to lack of security measures (e.g., firewalls or intrusion detection systems)
-3. Physical breaches due to increased vulnerability (e.g., malware or phishing attacks)
-4. Potential for future attacks due to increased vulnerability (e.g., cyber threats, insider abuse)
-5. Potential consequences of not addressing the issue promptly (e.g., disruption, cost savings)</t>
+          <t>The given information indicates that a CERT.br server was compromised by malicious code and unauthorized access. The user provided an error message indicating that the server was configured for open ports (27017) but not port 53, which is used to communicate with NTP servers.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1218,8 +1327,111 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[CAT10: Unauthorized Modification]
-The content of this incident includes a complaint about phishing scam from [IP_ADDRESS_b7bfb2b94b]. The IP used was the PHISHING SCAM in question. It is unclear whether the content of the email contains any malicious code or if it is legitimate.</t>
+          <t>The classification of the incident described in the doc can be classified as follows:
+- **CAT1:** Account Compromise (cat 1)
+- **CAT2:** Malware (cat 2)
+- **CAT3:** Denial of Service Attack (cat 3)
+- **CAT4: Vulnerability Exploitation** (cat 4)
+- **CAT5: Vulnerable Data Breach (cat 5)**
+- **CAT6: Insider Abuse (cat 6)**
+- **CAT7: Social Engineering (cat 7)**
+- **CAT8: Physical Incident (cat 8)**
+- **CAT9: Unauthorized Modification (cat 9)**
+- **CAT10: Misuse of Resources** (cat 10)
+- **CAT11: Third-Party Issues (cat 11)**
+- **CAT12: Intrusion Attempt (cat 12)**
+- **CAT13: Third-Party Issues (cat 13)**
+- **CAT14: Unauthorized Modification** (cat 14)
+- **CAT15: Misuse of Resources (cat 15)**
+- **CAT16: Third-Party Issues (cat 16)**
+- **CAT17: Third-Party Issues (cat 17)**
+- **CAT18: Unauthorized Modification** (cat 18)
+- **CAT19: Third-Party Issues (cat 19)**
+- **CAT20: Malicious Code (cat 20)**
+- **CAT30: Trojan Horse (cat 30)**
+- **CAT40: Attack on Services (cat 40)**
+- **CAT50: Vulnerable Data Breach (cat 50)**
+- **CAT60: Insider Abuse (cat 60)**
+- **CAT70: Unauthorized Modification**
+- **CAT80: Third-Party Issues (cat 80)**
+- **CAT90: Misuse of Resources (cat 90)**
+- **CAT100: Third-Party Issues (cat 100)**
+- **CAT120: Intrusion Attempt**
+- **CAT130: Unauthorized Modification**
+- **CAT140: Misuse of Resources (cat 140)**
+- **CAT150: Third-Party Issues (cat 150)**
+- **CAT160: Insider Abuse (cat 160)**
+- **CAT170: Unauthorized Modification**
+- **CAT180: Third-Party Issues (cat 180)**
+- **CAT230: Third-Party Issues (cat 230)**
+- **CAT430: Third-Party Issues (cat 430)**
+- **CAT530: Vulnerable Data Breach (cat 530)**
+- **CAT630: Insider Abuse (cat 630)**
+- **CAT730: Unauthorized Modification**
+- **CAT830: Misuse of Resources (cat 830)**
+- **CAT930: Third-Party Issues (cat 930)**
+- **CAT1040: Third-Party Issues (cat 1040)**
+- **CAT250: Third-Party Issues (cat 250)**
+- **CAT650: Third-Party Issues (cat 650)**
+- **CAT750: Third-Party Issues (cat 750)**
+- **CAT850: Third-Party Issues (cat 850)**
+- **CAT950: Third-Party Issues (cat 950)**
+- **CAT1060: Third-Party Issues (cat 1060)**
+- **CAT270: Third-Party Issues (cat 270)**
+- **CAT380: Third-Party Issues (cat 380)**
+- **CAT490: Third-Party Issues (cat 490)**
+- **CAT510: Third-Party Issues (cat 510)**
+- **CAT620: Third-Party Issues (cat 620)**
+- **CAT730: Third-Party Issues (cat 730)**
+- **CAT840: Third-Party Issues (cat 840)**
+- **CAT950: Third-Party Issues (cat 950)**
+- **CAT1060: Third-Party Issues (cat 1060)**
+- **CAT2730: Third-Party Issues (cat 2730)**
+- **CAT4830: Third-Party Issues (cat 4830)**
+- **CAT5930: Third-Party Issues (cat 5930)**
+- **CAT610: Third-Party Issues (cat 610)**
+- **CAT720: Third-Party Issues (cat 720)**
+- **CAT840: Third-Party Issues (cat 840)**
+- **CAT950: Third-Party Issues (cat 950)**
+- **CAT1060: Third-Party Issues (cat 1060)**
+- **CAT2730: Third-Party Issues (cat 2730)**
+- **CAT4830: Third-Party Issues (cat 4830)**
+- **CAT5930: Third-Party Issues (cat 5930)**
+- **CAT610: Third-Party Issues (cat 610)**
+- **CAT720: Third-Party Issues (cat 720)**
+- **CAT840: Third-Party Issues (cat 840)**
+- **CAT950: Third-Party Issues (cat 950)**
+- **CAT1060: Third-Party Issues (cat 1060)**
+- **CAT2730: Third-Party Issues (cat 2730)**
+- **CAT4830: Third-Party Issues (cat 4830)**
+- **CAT5930: Third-Party Issues (cat 5930)**
+- **CAT610: Third-Party Issues (cat 610)**
+- **CAT720: Third-Party Issues (cat 720)**
+- **CAT840: Third-Party Issues (cat 840)**
+- **CAT950: Third-Party Issues (cat 950)**
+- **CAT1060: Third-Party Issues (cat 1060)**
+- **CAT2730: Third-Party Issues (cat 2730)**
+- **CAT4830: Third-Party Issues (cat 4830)**
+- **CAT5930: Third-Party Issues (cat 5930)**
+- **CAT610: Third-Party Issues (cat 610)**
+- **CAT720: Third-Party Issues (cat 720)**
+- **CAT840: Third-Party Issues (cat 840)**
+- **CAT950: Third-Party Issues (cat 950)**
+- **CAT1060: Third-Party Issues (cat 1060)**
+- **CAT2730: Third-Party Issues (cat 2730)**
+- **CAT4830: Third-Party Issues (cat 4830)**
+- **CAT5930: Third-Party Issues (cat 5930)**
+- **CAT610: Third-Party Issues (cat 610)**
+- **CAT720: Third-Party Issues (cat 720)**
+- **CAT840: Third-Party Issues (cat 840)**
+- **CAT950: Third-Party Issues (cat 950)**
+- **CAT1060: Third-Party Issues (cat 1060)**
+- **CAT2730: Third-Party Issues (cat 2730)**
+- **CAT4830: Third-Party Issues (cat 4830)**
+- **CAT5930: Third-Party Issues (cat 5930)**
+- **CAT610: Third-Party Issues (cat 610)**
+- **CAT720: Third-Party Issues (cat 720)**
+- **CAT840: Third-</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1246,18 +1458,95 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>The classification of this incident can be categorized as:
-- **CAT1:** Account Compromise (e.g., "phishing", "brute force")
-- **CAT2:** Malware (e.g., "ransomware", "trojan", "virus", "spyware", "malicious code")
-- **CAT3: Denial of Service Attack** (e.g., "volumetric DoS or DDoS")
-- **CAT4: Data Leak (e.g., "unauthorized access", "compromised password", "ssn theft")
-- **CAT5: Vulnerability Exploitation** (e.g., "insider abuse", "fraud", "deception", "spoofing", "manipulation"),
-- **CAT6: Misuse of Resources (e.g., "malware hosting", "unauthorized use")**,
-- **CAT7: Misuse of Resources** (e.g., "sabotage", "intentional action", "staff")
-- **CAT8: Unauthorized Modification** (e.g., "frail" or "unsafe"),
-- **CAT9: Misuse of Access** (e.g., "access unauthorized", "unauthorized access"),
-- **CAT10: Third-Party Issues** (e.g., "SaaS breach", "supply chain compromise")
-The classification is not possible due to the nature of the incident, as it involves malicious actions from internal users and external attackers.</t>
+          <t>[URL_048b48fcc5]
+[URL_76cf75363b]
+---- Mensagem encaminhada de [PERSON_d16cbd42d4] &lt;[EMAIL_ADDRESS_6406c2e325]&gt; ---
+De: [ORGANIZATION_a5ae2a1393] [[EMAIL_ADDRESS_6b1109596d]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+Para: [PERSON_f536fb10ec] Musse
+Assunto: Re: Issue 14985712: server involved in fraud at [IP_ADDRESS_037498959c]
+Data: [DATE_TIME_bfae47f092] 12:06:06
+________________________________________
+De: [ORGANIZATION_a5ae2a1393] [[EMAIL_ADDRESS_6b1109596d]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de 2021 18:03
+________________________________________
+De: [ORGANIZATION_f47ccee91] [[EMAIL_ADDRESS_bcb5ff6dae]]
+Enviado: terça-feira, 2 de fevereiro de</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1284,7 +1573,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[CAT10: Unauthorized Modification](https://www.huggingface.com/security-threats/cyber-attacks/unauthorized-modification)</t>
+          <t>[CAT10: Unauthorized Modification](https://www.huggingface.com/security-threats/cybersecurity-attacks/unauthorized-modification)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1311,7 +1600,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[CAT1: Account Compromise](https://www.huggingface.com/security-threats/cyber-attacks/account-compromise)</t>
+          <t>- **CAT1:** Account Compromise
+- **CAT2:** Malware
+- **CAT3:** Denial of Service Attack
+- **CAT4:** Data Leak
+- **CAT5:** Vulnerability Exploitation
+- **CAT6:** Unauthorized Modification
+- **CAT7: Misuse of Resources**
+- **CAT10:** Third-Party Issues
+- **CAT12:** Intrusion Attempt
+- **CAT13:** Misuse of Resources
+- **CAT14:** Unauthorized Modification
+- **CAT15:** Third-Party Issues
+- **CAT16: Insider Abuse**
+- **CAT17: Social Engineering**
+- **CAT18: Physical Incident**</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1344,6 +1647,8 @@
 alterado. Ressaltamos que no momento o conteudo alterada continua
 acessivel.
 URL: [URL_04917150b6]
+--begin online content (Wed Sep 28 10:22:43 UTC 2022) --
+[IMG]
 ----end online content--
 Solicitamos que o incidente seja investigado e que as acoes cabiveis sejam tomadas.
 Atenciosamente,
@@ -1387,7 +1692,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[CAT1: Account Compromise]</t>
+          <t>[CAT10: Denial of Service Attack]</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1414,12 +1719,23 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">[cat102349867]
-Solicitamos que o incidente seja investigado e que as acoes cabiveis tomadas.
-Atenciosamente,
-CERT.br/NIC.br
-&lt;[EMAIL_ADDRESS_ef2283438e]&gt;
-[URL_ef2283438e]
+          <t xml:space="preserve">[cat102493867a]
+---
+### Input:
+Incident Description:
+target: [DATE_TIME_8adbd1ab5c] 14:11 CERT.br: 
+Data de envio: Aug 23, 2021 2:07 PM
+Para: [EMAIL_ADDRESS_f6f7086365], [EMAIL_ADDRESS_d5e24eeec6]
+CC: [EMAIL_ADDRESS_83824c64b2]
+Assunto: Desfiguracao de website ([URL_07659cba1e])
+Senhores,
+Chegou ao nosso conhecimento que o website abaixo teve o seu conteudo
+alterado. Ressaltamos que no momento o conteudo alterada continua
+acessivel.
+URL: [URL_06a725cac9]
+--begin online content (Mon Aug 23 17:07:17 GMT 2021) --
+   IFRAME: [URL_9a675cecea], [EMAIL_ADDRESS_83824c64b2], [URL_ef2283438e]
+----end online content--
 ---
 ### Output format:
 Category: [CAT number, e.g., CAT5]  
